--- a/Lexis-GLOBAL/Coredata/REGION.xlsx
+++ b/Lexis-GLOBAL/Coredata/REGION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4601B74-4AAA-4B41-9271-8D8E3ECD1C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341C9C8A-EBA8-44EB-A670-D1A6E25B59F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region_Create" sheetId="7" r:id="rId1"/>
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -348,6 +348,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1114,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCC0056-177B-49CB-8A80-CE2D5DAC6381}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1195,364 +1199,364 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="3"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="3"/>
+      <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="2" t="s">
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="3"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="2" t="s">
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="3"/>
+      <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="3"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="2" t="s">
+      <c r="H7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="3"/>
+      <c r="T7" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2911,7 +2915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876DF612-9D63-4DEA-BCA2-55F7199572F3}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/Lexis-GLOBAL/Coredata/REGION.xlsx
+++ b/Lexis-GLOBAL/Coredata/REGION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341C9C8A-EBA8-44EB-A670-D1A6E25B59F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B0E379-D938-464E-BCB3-C6DC37FFB3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region_Create" sheetId="7" r:id="rId1"/>
@@ -669,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F83A6FB-A034-4DD8-86B8-CFDDCA5856F5}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1118,7 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCC0056-177B-49CB-8A80-CE2D5DAC6381}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="S3" sqref="S3:S7"/>
     </sheetView>
   </sheetViews>

--- a/Lexis-GLOBAL/Coredata/REGION.xlsx
+++ b/Lexis-GLOBAL/Coredata/REGION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B0E379-D938-464E-BCB3-C6DC37FFB3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB8D894-23CB-4296-AAB4-6212804EF515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="70">
   <si>
     <t>S.No</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Valid_NormalPassword</t>
+  </si>
+  <si>
+    <t>Local Management</t>
   </si>
 </sst>
 </file>
@@ -323,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,6 +355,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,7 +677,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1119,7 +1126,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1569,7 +1576,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2015,10 +2022,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E3DD8B-8AF5-466D-8CD3-6ADC676C9D2C}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="C21" sqref="C21:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2457,6 +2464,18 @@
       </c>
       <c r="T7" s="3"/>
     </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F12" s="14"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F16" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2467,7 +2486,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2913,20 +2932,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876DF612-9D63-4DEA-BCA2-55F7199572F3}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.90625" customWidth="1"/>
     <col min="2" max="2" width="25.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2934,7 +2955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -2942,7 +2963,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
@@ -2950,7 +2971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -2958,7 +2979,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
@@ -2966,7 +2987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
@@ -2974,7 +2995,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
@@ -2982,7 +3003,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
@@ -2990,7 +3011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -2998,7 +3019,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
@@ -3006,7 +3027,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
@@ -3014,7 +3035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -3022,7 +3043,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
@@ -3030,15 +3051,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>37</v>
       </c>
@@ -3046,7 +3070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>38</v>
       </c>

--- a/Lexis-GLOBAL/Coredata/REGION.xlsx
+++ b/Lexis-GLOBAL/Coredata/REGION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB8D894-23CB-4296-AAB4-6212804EF515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6A0144-633E-4454-803C-0973A86D1DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region_Create" sheetId="7" r:id="rId1"/>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F83A6FB-A034-4DD8-86B8-CFDDCA5856F5}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2485,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE37DCCC-13B1-49E4-99A3-B53BC3544F74}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Lexis-GLOBAL/Coredata/REGION.xlsx
+++ b/Lexis-GLOBAL/Coredata/REGION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6A0144-633E-4454-803C-0973A86D1DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C10AC82-212C-4909-B871-4C09A37F75BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region_Create" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="71">
   <si>
     <t>S.No</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Local Management</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -2485,7 +2488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE37DCCC-13B1-49E4-99A3-B53BC3544F74}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -2934,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876DF612-9D63-4DEA-BCA2-55F7199572F3}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2962,6 +2965,9 @@
       <c r="B2" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -2970,6 +2976,9 @@
       <c r="B3" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
@@ -2978,6 +2987,9 @@
       <c r="B4" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -2986,6 +2998,9 @@
       <c r="B5" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
@@ -2994,6 +3009,9 @@
       <c r="B6" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
@@ -3002,6 +3020,9 @@
       <c r="B7" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
@@ -3010,6 +3031,9 @@
       <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
@@ -3018,6 +3042,9 @@
       <c r="B9" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
@@ -3026,6 +3053,9 @@
       <c r="B10" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
@@ -3034,6 +3064,9 @@
       <c r="B11" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
@@ -3042,6 +3075,9 @@
       <c r="B12" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
@@ -3049,6 +3085,9 @@
       </c>
       <c r="B13" s="7" t="s">
         <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">

--- a/Lexis-GLOBAL/Coredata/REGION.xlsx
+++ b/Lexis-GLOBAL/Coredata/REGION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C10AC82-212C-4909-B871-4C09A37F75BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3C50FC-2CB4-4EF8-BE6A-91DAA8442614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region_Create" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="72">
   <si>
     <t>S.No</t>
   </si>
@@ -245,17 +245,20 @@
     <t>Valid_NormalPassword</t>
   </si>
   <si>
-    <t>Local Management</t>
-  </si>
-  <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Locale Management</t>
+  </si>
+  <si>
+    <t>Lokesh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +286,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -326,10 +337,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,8 +375,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -679,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F83A6FB-A034-4DD8-86B8-CFDDCA5856F5}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1576,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C61D8D-6F21-4BD0-A295-218D22021CEA}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2017,6 +2031,11 @@
         <v>17</v>
       </c>
       <c r="T7" s="3"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2935,10 +2954,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876DF612-9D63-4DEA-BCA2-55F7199572F3}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2950,7 +2969,7 @@
     <col min="5" max="5" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2958,7 +2977,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -2966,10 +2985,10 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
@@ -2977,10 +2996,10 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -2988,10 +3007,10 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
@@ -2999,10 +3018,10 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
@@ -3010,10 +3029,10 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
@@ -3021,10 +3040,10 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
@@ -3032,10 +3051,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -3043,10 +3062,10 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
@@ -3054,10 +3073,10 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
@@ -3065,10 +3084,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -3076,10 +3095,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
@@ -3087,10 +3106,10 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>36</v>
       </c>
@@ -3098,10 +3117,10 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>37</v>
       </c>
@@ -3109,21 +3128,29 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="G19" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
